--- a/P10/Scrum_MICE_Sprint_4.xlsx
+++ b/P10/Scrum_MICE_Sprint_4.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C4A72F-2E65-4B14-94DE-09545DCB61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haydenjohnson/Code/cse1325/P10/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04723B07-EE87-0B41-BFAB-684691267E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="202">
   <si>
     <t>Product Name:</t>
   </si>
@@ -610,6 +615,39 @@
   </si>
   <si>
     <t>IMPORTANT: This is an optional sprint for students seeking additional points</t>
+  </si>
+  <si>
+    <t>Blue Bumpkins</t>
+  </si>
+  <si>
+    <t>Hayden Johnson</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 2</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 4</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 3</t>
+  </si>
+  <si>
+    <t>Wrote and compiled container class and related methods</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
+  </si>
+  <si>
+    <t>Wrote and compiled serving class and related methods</t>
+  </si>
+  <si>
+    <t>Wrote and compiled order class and related methods</t>
   </si>
 </sst>
 </file>
@@ -621,7 +659,7 @@
     <numFmt numFmtId="165" formatCode="mmm\ dd"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -705,6 +743,12 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -769,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -841,6 +885,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -853,15 +906,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,22 +1132,22 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,28 +2370,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2561,7 +2606,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2709,7 +2754,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2783,7 +2828,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -2874,7 +2919,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -3022,7 +3067,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -3096,7 +3141,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3185,7 +3230,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3226,7 +3271,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -3267,7 +3312,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -3308,7 +3353,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3349,7 +3394,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3390,7 +3435,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3431,7 +3476,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3757,54 +3802,56 @@
   </sheetPr>
   <dimension ref="A1:AMJ102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E66" sqref="B35:E66"/>
+    <sheetView topLeftCell="C26" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="45.5703125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="39.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="53.7109375" style="3" customWidth="1"/>
-    <col min="12" max="1024" width="11.5703125" style="3"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="45.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="39.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="53.6640625" style="3" customWidth="1"/>
+    <col min="12" max="1024" width="11.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="16">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -3843,14 +3890,20 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1001871835</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1">
@@ -3959,12 +4012,12 @@
         <v>1</v>
       </c>
       <c r="B13" s="4">
-        <f>B12-C13</f>
-        <v>43</v>
+        <f t="shared" ref="B13:B18" si="0">B12-C13</f>
+        <v>39</v>
       </c>
       <c r="C13" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="4"/>
@@ -3983,12 +4036,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="4">
-        <f>B13-C14</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="C14" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 2")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="4"/>
@@ -4007,12 +4060,12 @@
         <v>3</v>
       </c>
       <c r="B15" s="4">
-        <f>B14-C15</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="C15" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 3")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="4"/>
@@ -4031,12 +4084,12 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <f>B15-C16</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C16" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 4")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="4"/>
@@ -4051,8 +4104,8 @@
         <v>5</v>
       </c>
       <c r="B17" s="4">
-        <f>B16-C17</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C17" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 5")</f>
@@ -4071,8 +4124,8 @@
         <v>6</v>
       </c>
       <c r="B18" s="4">
-        <f>B17-C18</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>29</v>
       </c>
       <c r="C18" s="8">
         <f>COUNTIF(G$24:G$108,"Finished in Sprint 6")</f>
@@ -4132,10 +4185,10 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -4175,7 +4228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="14">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -4189,8 +4242,12 @@
       <c r="E24" s="9">
         <v>5</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="H24" s="12" t="s">
         <v>31</v>
       </c>
@@ -4204,7 +4261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24">
+    <row r="25" spans="1:11" ht="14">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -4218,8 +4275,12 @@
       <c r="E25" s="9">
         <v>1</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="H25" s="12" t="s">
         <v>31</v>
       </c>
@@ -4233,7 +4294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24">
+    <row r="26" spans="1:11" ht="28">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -4247,8 +4308,12 @@
       <c r="E26" s="9">
         <v>2</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="H26" s="12" t="s">
         <v>31</v>
       </c>
@@ -4262,7 +4327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="36">
+    <row r="27" spans="1:11" ht="28">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -4276,8 +4341,12 @@
       <c r="E27" s="9">
         <v>13</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="H27" s="12" t="s">
         <v>31</v>
       </c>
@@ -4291,7 +4360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="24">
+    <row r="28" spans="1:11" ht="28">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -4305,8 +4374,12 @@
       <c r="E28" s="9">
         <v>13</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="14">
+        <v>2</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="H28" s="12" t="s">
         <v>31</v>
       </c>
@@ -4320,7 +4393,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="14">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -4334,8 +4407,12 @@
       <c r="E29" s="9">
         <v>13</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="H29" s="12" t="s">
         <v>31</v>
       </c>
@@ -4349,7 +4426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="24">
+    <row r="30" spans="1:11" ht="28">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -4363,8 +4440,12 @@
       <c r="E30" s="9">
         <v>5</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
+      <c r="F30" s="14">
+        <v>3</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="H30" s="12" t="s">
         <v>54</v>
       </c>
@@ -4378,7 +4459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="14">
       <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
@@ -4392,8 +4473,12 @@
       <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
+      <c r="F31" s="14">
+        <v>3</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="H31" s="12" t="s">
         <v>31</v>
       </c>
@@ -4407,7 +4492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="16" customFormat="1">
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="14">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
@@ -4421,8 +4506,12 @@
       <c r="E32" s="9">
         <v>13</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="F32" s="14">
+        <v>3</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="H32" s="12" t="s">
         <v>31</v>
       </c>
@@ -4434,7 +4523,7 @@
       </c>
       <c r="K32" s="15"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="14">
       <c r="A33" s="3" t="s">
         <v>64</v>
       </c>
@@ -4448,8 +4537,12 @@
       <c r="E33" s="9">
         <v>13</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="14">
+        <v>3</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="H33" s="12" t="s">
         <v>65</v>
       </c>
@@ -4461,7 +4554,7 @@
       </c>
       <c r="K33" s="15"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="14">
       <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
@@ -4475,8 +4568,12 @@
       <c r="E34" s="9">
         <v>5</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="14">
+        <v>3</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>197</v>
+      </c>
       <c r="H34" s="12" t="s">
         <v>65</v>
       </c>
@@ -4488,845 +4585,857 @@
       </c>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11" ht="24">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:11" ht="28">
+      <c r="A35" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="33">
         <v>12</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="33">
         <v>4</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33">
         <v>5</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="35" t="s">
+      <c r="F35" s="14">
+        <v>4</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I35" s="36" t="s">
+      <c r="I35" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="36" t="s">
+      <c r="K35" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="24">
-      <c r="A36" s="33" t="s">
+    <row r="36" spans="1:11" ht="28">
+      <c r="A36" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="33">
         <v>13</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="33">
         <v>4</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33">
         <v>8</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="35" t="s">
+      <c r="F36" s="14">
+        <v>4</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="36" t="s">
+      <c r="I36" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="J36" s="36" t="s">
+      <c r="J36" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="36" t="s">
+      <c r="K36" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="16" customFormat="1">
-      <c r="A37" s="33" t="s">
+    <row r="37" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="33">
         <v>14</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="33">
         <v>4</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33">
         <v>8</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="35" t="s">
+      <c r="F37" s="14">
+        <v>4</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="I37" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="36" t="s">
+      <c r="J37" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="K37" s="36"/>
-    </row>
-    <row r="38" spans="1:11" s="16" customFormat="1">
-      <c r="A38" s="33" t="s">
+      <c r="K37" s="32"/>
+    </row>
+    <row r="38" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A38" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="33">
         <v>15</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="33">
         <v>5</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33">
         <v>3</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="35" t="s">
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I38" s="36" t="s">
+      <c r="I38" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="36" t="s">
+      <c r="J38" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:11" s="16" customFormat="1">
-      <c r="A39" s="33" t="s">
+      <c r="K38" s="32"/>
+    </row>
+    <row r="39" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A39" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="33">
         <v>16</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="33">
         <v>5</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33">
         <v>2</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="35" t="s">
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I39" s="36" t="s">
+      <c r="I39" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="36" t="s">
+      <c r="J39" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:11" s="16" customFormat="1">
-      <c r="A40" s="33" t="s">
+      <c r="K39" s="32"/>
+    </row>
+    <row r="40" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A40" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="33">
         <v>17</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="33">
         <v>5</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33">
         <v>8</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35" t="s">
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="36" t="s">
+      <c r="I40" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="36" t="s">
+      <c r="J40" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="36"/>
-    </row>
-    <row r="41" spans="1:11" s="16" customFormat="1">
-      <c r="A41" s="33" t="s">
+      <c r="K40" s="32"/>
+    </row>
+    <row r="41" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A41" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="33">
         <v>20</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="33">
         <v>5</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37">
+      <c r="D41" s="33"/>
+      <c r="E41" s="33">
         <v>5</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="35" t="s">
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I41" s="36" t="s">
+      <c r="I41" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="J41" s="36" t="s">
+      <c r="J41" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="K41" s="36" t="s">
+      <c r="K41" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="16" customFormat="1" ht="24">
-      <c r="A42" s="33" t="s">
+    <row r="42" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A42" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="33">
         <v>18</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="33">
         <v>5</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37">
+      <c r="D42" s="33"/>
+      <c r="E42" s="33">
         <v>13</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35" t="s">
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="36" t="s">
+      <c r="I42" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="36" t="s">
+      <c r="J42" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="K42" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="16" customFormat="1" ht="24">
-      <c r="A43" s="33" t="s">
+    <row r="43" spans="1:11" s="16" customFormat="1" ht="28">
+      <c r="A43" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="33">
         <v>19</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="33">
         <v>5</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37">
+      <c r="D43" s="33"/>
+      <c r="E43" s="33">
         <v>8</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="35" t="s">
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="36" t="s">
+      <c r="I43" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J43" s="36" t="s">
+      <c r="J43" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="K43" s="36" t="s">
+      <c r="K43" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="16" customFormat="1" ht="24">
-      <c r="A44" s="33" t="s">
+    <row r="44" spans="1:11" s="16" customFormat="1" ht="28">
+      <c r="A44" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="33">
         <v>21</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37">
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33">
         <v>8</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="35" t="s">
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I44" s="36" t="s">
+      <c r="I44" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J44" s="36" t="s">
+      <c r="J44" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="K44" s="36"/>
-    </row>
-    <row r="45" spans="1:11" s="16" customFormat="1" ht="24">
-      <c r="A45" s="33" t="s">
+      <c r="K44" s="32"/>
+    </row>
+    <row r="45" spans="1:11" s="16" customFormat="1" ht="28">
+      <c r="A45" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="33">
         <v>22</v>
       </c>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37">
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33">
         <v>5</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35" t="s">
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="J45" s="36" t="s">
+      <c r="J45" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="36" t="s">
+      <c r="K45" s="32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="24">
-      <c r="A46" s="33" t="s">
+    <row r="46" spans="1:11" ht="28">
+      <c r="A46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="33">
         <v>23</v>
       </c>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37">
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33">
         <v>8</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35" t="s">
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="J46" s="36" t="s">
+      <c r="J46" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="K46" s="36" t="s">
+      <c r="K46" s="32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="24">
-      <c r="A47" s="33" t="s">
+    <row r="47" spans="1:11" ht="28">
+      <c r="A47" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="33">
         <v>24</v>
       </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37">
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33">
         <v>13</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35" t="s">
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="I47" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="J47" s="36" t="s">
+      <c r="J47" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="K47" s="36" t="s">
+      <c r="K47" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="16" customFormat="1">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:11" s="16" customFormat="1" ht="14">
+      <c r="A48" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="33">
         <v>25</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37">
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33">
         <v>13</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="35" t="s">
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I48" s="36" t="s">
+      <c r="I48" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="J48" s="36" t="s">
+      <c r="J48" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="K48" s="36"/>
-    </row>
-    <row r="49" spans="1:11" s="17" customFormat="1">
-      <c r="A49" s="33" t="s">
+      <c r="K48" s="32"/>
+    </row>
+    <row r="49" spans="1:11" s="17" customFormat="1" ht="14">
+      <c r="A49" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="33">
         <v>26</v>
       </c>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37">
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33">
         <v>3</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="35" t="s">
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="36" t="s">
+      <c r="I49" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="J49" s="36" t="s">
+      <c r="J49" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="K49" s="36"/>
-    </row>
-    <row r="50" spans="1:11" ht="24">
-      <c r="A50" s="33" t="s">
+      <c r="K49" s="32"/>
+    </row>
+    <row r="50" spans="1:11" ht="28">
+      <c r="A50" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="33">
         <v>27</v>
       </c>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37">
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33">
         <v>8</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="35" t="s">
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I50" s="36" t="s">
+      <c r="I50" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="J50" s="36" t="s">
+      <c r="J50" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="K50" s="36" t="s">
+      <c r="K50" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="24">
-      <c r="A51" s="33" t="s">
+    <row r="51" spans="1:11" ht="28">
+      <c r="A51" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="33">
         <v>28</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33">
         <v>5</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="35" t="s">
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="36" t="s">
+      <c r="I51" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="J51" s="36" t="s">
+      <c r="J51" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="K51" s="36"/>
-    </row>
-    <row r="52" spans="1:11" ht="24">
-      <c r="A52" s="33" t="s">
+      <c r="K51" s="32"/>
+    </row>
+    <row r="52" spans="1:11" ht="28">
+      <c r="A52" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="33">
         <v>29</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37">
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33">
         <v>8</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="35" t="s">
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I52" s="36" t="s">
+      <c r="I52" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="J52" s="36" t="s">
+      <c r="J52" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="K52" s="36"/>
-    </row>
-    <row r="53" spans="1:11" ht="24">
-      <c r="A53" s="33" t="s">
+      <c r="K52" s="32"/>
+    </row>
+    <row r="53" spans="1:11" ht="28">
+      <c r="A53" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="33">
         <v>30</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33">
         <v>8</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35" t="s">
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I53" s="36" t="s">
+      <c r="I53" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="J53" s="36" t="s">
+      <c r="J53" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="K53" s="36"/>
-    </row>
-    <row r="54" spans="1:11" ht="24">
-      <c r="A54" s="33" t="s">
+      <c r="K53" s="32"/>
+    </row>
+    <row r="54" spans="1:11" ht="14">
+      <c r="A54" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="33">
         <v>31</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33">
         <v>8</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="35" t="s">
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I54" s="36" t="s">
+      <c r="I54" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="J54" s="36" t="s">
+      <c r="J54" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="K54" s="36"/>
-    </row>
-    <row r="55" spans="1:11" ht="24">
-      <c r="A55" s="33" t="s">
+      <c r="K54" s="32"/>
+    </row>
+    <row r="55" spans="1:11" ht="28">
+      <c r="A55" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="33">
         <v>32</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33">
         <v>5</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="35" t="s">
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="I55" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="J55" s="36" t="s">
+      <c r="J55" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="K55" s="36" t="s">
+      <c r="K55" s="32" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24">
-      <c r="A56" s="33" t="s">
+    <row r="56" spans="1:11" ht="28">
+      <c r="A56" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="33">
         <v>33</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37">
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33">
         <v>8</v>
       </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="35" t="s">
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I56" s="36" t="s">
+      <c r="I56" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="J56" s="36" t="s">
+      <c r="J56" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="K56" s="36"/>
-    </row>
-    <row r="57" spans="1:11" ht="24">
-      <c r="A57" s="33" t="s">
+      <c r="K56" s="32"/>
+    </row>
+    <row r="57" spans="1:11" ht="28">
+      <c r="A57" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="33">
         <v>34</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33">
         <v>5</v>
       </c>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="35" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I57" s="36" t="s">
+      <c r="I57" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="J57" s="36" t="s">
+      <c r="J57" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="K57" s="36"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="33" t="s">
+      <c r="K57" s="32"/>
+    </row>
+    <row r="58" spans="1:11" ht="14">
+      <c r="A58" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="33">
         <v>35</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33">
         <v>8</v>
       </c>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35" t="s">
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I58" s="36" t="s">
+      <c r="I58" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="J58" s="36" t="s">
+      <c r="J58" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="K58" s="36"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="33" t="s">
+      <c r="K58" s="32"/>
+    </row>
+    <row r="59" spans="1:11" ht="14">
+      <c r="A59" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="33">
         <v>36</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37">
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33">
         <v>8</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35" t="s">
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="36" t="s">
+      <c r="I59" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="J59" s="36" t="s">
+      <c r="J59" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="K59" s="36"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="33" t="s">
+      <c r="K59" s="32"/>
+    </row>
+    <row r="60" spans="1:11" ht="14">
+      <c r="A60" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="33">
         <v>37</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33">
         <v>8</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="35" t="s">
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="K60" s="36"/>
-    </row>
-    <row r="61" spans="1:11" ht="36">
-      <c r="A61" s="33" t="s">
+      <c r="K60" s="32"/>
+    </row>
+    <row r="61" spans="1:11" ht="28">
+      <c r="A61" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="33">
         <v>38</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33">
         <v>3</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="35" t="s">
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I61" s="36" t="s">
+      <c r="I61" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="J61" s="36" t="s">
+      <c r="J61" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="K61" s="36"/>
-    </row>
-    <row r="62" spans="1:11" ht="24">
-      <c r="A62" s="33" t="s">
+      <c r="K61" s="32"/>
+    </row>
+    <row r="62" spans="1:11" ht="28">
+      <c r="A62" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="33">
         <v>39</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33">
         <v>21</v>
       </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="35" t="s">
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I62" s="36" t="s">
+      <c r="I62" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="J62" s="36" t="s">
+      <c r="J62" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="K62" s="36"/>
-    </row>
-    <row r="63" spans="1:11" ht="36">
-      <c r="A63" s="33" t="s">
+      <c r="K62" s="32"/>
+    </row>
+    <row r="63" spans="1:11" ht="28">
+      <c r="A63" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="33">
         <v>40</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33">
         <v>13</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="35" t="s">
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I63" s="36" t="s">
+      <c r="I63" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="J63" s="36" t="s">
+      <c r="J63" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="K63" s="36"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="33" t="s">
+      <c r="K63" s="32"/>
+    </row>
+    <row r="64" spans="1:11" ht="14">
+      <c r="A64" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="33">
         <v>41</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33">
         <v>5</v>
       </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="35" t="s">
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I64" s="36" t="s">
+      <c r="I64" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="J64" s="36" t="s">
+      <c r="J64" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="K64" s="36"/>
-    </row>
-    <row r="65" spans="1:11" ht="24">
-      <c r="A65" s="33" t="s">
+      <c r="K64" s="32"/>
+    </row>
+    <row r="65" spans="1:11" ht="28">
+      <c r="A65" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="33">
         <v>42</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="33">
         <v>1</v>
       </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="35" t="s">
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I65" s="36" t="s">
+      <c r="I65" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="J65" s="36" t="s">
+      <c r="J65" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K65" s="36" t="s">
+      <c r="K65" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="33" t="s">
+    <row r="66" spans="1:11" ht="14">
+      <c r="A66" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="33">
         <v>43</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33">
         <v>1</v>
       </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="35" t="s">
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="36" t="s">
+      <c r="I66" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="J66" s="36" t="s">
+      <c r="J66" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="K66" s="36" t="s">
+      <c r="K66" s="32" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5766,11 +5875,11 @@
       <formula1>"0,1,2,3,5,8,13,21,34,55,89"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Sprint" prompt="Select the sprint number (1, 2, etc.) in which you plan to implement this feature.  This is just for planning purposes, it won't affect your grade._x000a__x000a_In Scrum, you only plan the current sprint, not future sprints, so you don't need to fill this in for any " sqref="F24:F34 F67:F102" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Sprint" prompt="Select the sprint number (1, 2, etc.) in which you plan to implement this feature.  This is just for planning purposes, it won't affect your grade._x000a__x000a_In Scrum, you only plan the current sprint, not future sprints, so you don't need to fill this in for any " sqref="F24:F37 F67:F102" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G24:G34 G67:G102" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Value" error="This cell may only contain a valid status value (hint: use the drop-down selection list) or be left blank (hint: use the Delete key)" promptTitle="Implementation Status" prompt="Leave blank initially (hint: Use the Delete key)_x000a_Select &quot;In Work&quot; when you begin designing and coding this feature._x000a_Select &quot;In Test&quot; when this feature is fully coded and you are testing it._x000a_Select  Finished ONLY when the feature works well and is READY TO" sqref="G24:G37 G67:G102" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"In Work,In Test,Finished in Sprint 1,Finished in Sprint 2,Finished in Sprint 3,Finished in Sprint 4,Finished in Sprint 5,Finished in Sprint 6"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5793,16 +5902,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -5906,7 +6015,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -5924,7 +6033,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="18">
@@ -5942,7 +6051,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="18">
@@ -5960,7 +6069,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="18">
@@ -5978,7 +6087,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="18">
@@ -5996,7 +6105,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -6014,7 +6123,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="18">
@@ -6792,16 +6901,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -6908,7 +7017,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -6926,7 +7035,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="18">
@@ -6944,7 +7053,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="18">
@@ -6962,7 +7071,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="18">
@@ -6980,7 +7089,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="18">
@@ -6998,7 +7107,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -7016,7 +7125,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="18">
@@ -7794,16 +7903,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -7910,7 +8019,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -7928,7 +8037,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="18">
@@ -7946,7 +8055,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="18">
@@ -7964,7 +8073,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="18">
@@ -7982,7 +8091,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="18">
@@ -8000,7 +8109,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -8018,7 +8127,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="18">
@@ -8792,20 +8901,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -8897,7 +9006,7 @@
       </c>
       <c r="B7" s="18">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -8911,8 +9020,8 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
-        <v>1</v>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
+        <v>3</v>
       </c>
       <c r="C8" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -8929,8 +9038,8 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C9" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -8947,8 +9056,8 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C10" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -8965,8 +9074,8 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C11" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -8983,8 +9092,8 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C12" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -9001,8 +9110,8 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C13" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -9019,12 +9128,12 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C14" s="18">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -9066,27 +9175,52 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="D17" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="E17" s="28"/>
+      <c r="B17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -9750,7 +9884,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D20:D100" xr:uid="{00000000-0002-0000-0400-000005000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -9797,16 +9931,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -9913,7 +10047,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -9931,7 +10065,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="18">
@@ -9949,7 +10083,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="18">
@@ -9967,7 +10101,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="18">
@@ -9985,7 +10119,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="18">
@@ -10003,7 +10137,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -10021,7 +10155,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="18">
@@ -10799,16 +10933,16 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="20" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="20" customFormat="1" ht="18">
       <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
@@ -10915,7 +11049,7 @@
         <v>178</v>
       </c>
       <c r="B8" s="18">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="18">
@@ -10933,7 +11067,7 @@
         <v>179</v>
       </c>
       <c r="B9" s="18">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="18">
@@ -10951,7 +11085,7 @@
         <v>180</v>
       </c>
       <c r="B10" s="18">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="18">
@@ -10969,7 +11103,7 @@
         <v>181</v>
       </c>
       <c r="B11" s="18">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="18">
@@ -10987,7 +11121,7 @@
         <v>182</v>
       </c>
       <c r="B12" s="18">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="18">
@@ -11005,7 +11139,7 @@
         <v>183</v>
       </c>
       <c r="B13" s="18">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="18">
@@ -11023,7 +11157,7 @@
         <v>184</v>
       </c>
       <c r="B14" s="18">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="18">
